--- a/htdocs/App/Controllers/Traspasos/Salidas/Salida-7306DYN.xlsx
+++ b/htdocs/App/Controllers/Traspasos/Salidas/Salida-7306DYN.xlsx
@@ -43,13 +43,13 @@
     <t>7306DYN</t>
   </si>
   <si>
-    <t>Palma de Mallorca a ___ de  __________ de 2017</t>
+    <t>Palma de Mallorca a ___ de  __________ de 2018</t>
   </si>
   <si>
     <t>Firma</t>
   </si>
   <si>
-    <t>11-10-2017</t>
+    <t>05-01-2018</t>
   </si>
 </sst>
 </file>
@@ -57,7 +57,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -113,6 +113,15 @@
       <name val="Times New Roman"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
       <b val="1"/>
       <i val="0"/>
       <strike val="0"/>
@@ -164,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -198,10 +207,13 @@
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="14" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -544,7 +556,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -575,7 +587,7 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="F2" s="11"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
@@ -810,10 +822,10 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H23" s="12"/>
+      <c r="H23" s="13"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
     </row>
@@ -994,16 +1006,16 @@
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
-      <c r="G38" s="13" t="s">
+      <c r="G38" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="13"/>
+      <c r="H38" s="14"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
